--- a/bigsurvey/stub-files/correct-new.xlsx
+++ b/bigsurvey/stub-files/correct-new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>AccountNumber</t>
   </si>
@@ -80,6 +80,9 @@
     <t>CustomerZip</t>
   </si>
   <si>
+    <t>Residental</t>
+  </si>
+  <si>
     <t>W. 24TH ST.</t>
   </si>
   <si>
@@ -102,6 +105,9 @@
   </si>
   <si>
     <t>149 W 24TH ST</t>
+  </si>
+  <si>
+    <t>Commercial</t>
   </si>
   <si>
     <t>VICKNAIR, CLIFTON</t>
@@ -129,6 +135,9 @@
   </si>
   <si>
     <t>149 W 23RD ST</t>
+  </si>
+  <si>
+    <t>Industrial</t>
   </si>
   <si>
     <t>HIGHWAY 44</t>
@@ -261,7 +270,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -274,7 +283,7 @@
   <dimension ref="A1:U65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -372,8 +381,8 @@
       <c r="A2" s="0" t="n">
         <v>110000110</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
+      <c r="C2" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>19760318</v>
@@ -382,13 +391,13 @@
         <v>141</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>70084</v>
@@ -400,22 +409,22 @@
         <v>5357667</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>3647</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U2" s="0" t="n">
         <v>700846313</v>
@@ -425,8 +434,8 @@
       <c r="A3" s="0" t="n">
         <v>110000120</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
+      <c r="C3" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>19770413</v>
@@ -435,13 +444,13 @@
         <v>149</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>70084</v>
@@ -453,22 +462,22 @@
         <v>5321298</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O3" s="0" t="n">
         <v>3930</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U3" s="0" t="n">
         <v>700846313</v>
@@ -478,8 +487,8 @@
       <c r="A4" s="0" t="n">
         <v>110000125</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>3</v>
+      <c r="C4" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>19890101</v>
@@ -488,13 +497,13 @@
         <v>155</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>70084</v>
@@ -506,22 +515,22 @@
         <v>5321299</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O4" s="0" t="n">
         <v>2439</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U4" s="0" t="n">
         <v>700846313</v>
@@ -531,8 +540,8 @@
       <c r="A5" s="0" t="n">
         <v>110000200</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>19630204</v>
@@ -541,13 +550,13 @@
         <v>215</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>70084</v>
@@ -559,22 +568,22 @@
         <v>5321302</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O5" s="0" t="n">
         <v>4753</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U5" s="0" t="n">
         <v>700846316</v>
@@ -584,8 +593,8 @@
       <c r="A6" s="0" t="n">
         <v>110000301</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>19980603</v>
@@ -594,13 +603,13 @@
         <v>145</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>70084</v>
@@ -612,22 +621,22 @@
         <v>5321292</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O6" s="0" t="n">
         <v>6712</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U6" s="0" t="n">
         <v>700846305</v>
@@ -637,8 +646,8 @@
       <c r="A7" s="0" t="n">
         <v>110000310</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>3</v>
+      <c r="C7" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>19890101</v>
@@ -647,13 +656,13 @@
         <v>149</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>70084</v>
@@ -665,22 +674,22 @@
         <v>5321291</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O7" s="0" t="n">
         <v>1659</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U7" s="0" t="n">
         <v>700846305</v>
@@ -690,8 +699,8 @@
       <c r="A8" s="0" t="n">
         <v>111111111</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>4</v>
+      <c r="C8" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>19760505</v>
@@ -700,13 +709,13 @@
         <v>2262</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>70084</v>
@@ -718,22 +727,22 @@
         <v>5371727</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O8" s="0" t="n">
         <v>26381</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U8" s="0" t="n">
         <v>700846328</v>

--- a/bigsurvey/stub-files/correct-new.xlsx
+++ b/bigsurvey/stub-files/correct-new.xlsx
@@ -80,7 +80,7 @@
     <t>CustomerZip</t>
   </si>
   <si>
-    <t>Residental</t>
+    <t>Residential</t>
   </si>
   <si>
     <t>W. 24TH ST.</t>
@@ -270,7 +270,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
